--- a/tests/pandas/operators/date_proximity/dupes/dupes_expected_result.xlsx
+++ b/tests/pandas/operators/date_proximity/dupes/dupes_expected_result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alee7/ucsf/git/lavalinker/tests/pandas/operators/date_proximity/dupes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alee7/ucsf/git/macpie/tests/pandas/operators/date_proximity/dupes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B259544C-BC26-144C-8F96-56CF9D5A1049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409CA5FC-92F7-BA47-8698-70848136B8FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43100" yWindow="8040" windowWidth="23080" windowHeight="10940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,18 +64,6 @@
     <t>Col6_y</t>
   </si>
   <si>
-    <t>_merge</t>
-  </si>
-  <si>
-    <t>_diff_days</t>
-  </si>
-  <si>
-    <t>_abs_diff_days</t>
-  </si>
-  <si>
-    <t>_duplicates</t>
-  </si>
-  <si>
     <t>CDR</t>
   </si>
   <si>
@@ -92,6 +80,18 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>_mp_merge</t>
+  </si>
+  <si>
+    <t>_mp_diff_days</t>
+  </si>
+  <si>
+    <t>_mp_abs_diff_days</t>
+  </si>
+  <si>
+    <t>_mp_duplicates</t>
   </si>
 </sst>
 </file>
@@ -99,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -155,7 +155,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,9 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -476,10 +474,10 @@
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -526,16 +524,16 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -546,7 +544,7 @@
         <v>36892</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -555,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -572,7 +570,7 @@
         <v>37289</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>12</v>
@@ -581,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -593,7 +591,7 @@
         <v>37302</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>21</v>
@@ -602,13 +600,13 @@
         <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>9</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P3">
         <v>13</v>
@@ -628,7 +626,7 @@
         <v>37683</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>13</v>
@@ -637,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -649,7 +647,7 @@
         <v>37695</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K4">
         <v>22</v>
@@ -658,13 +656,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N4">
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P4">
         <v>12</v>
@@ -684,7 +682,7 @@
         <v>37683</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>13</v>
@@ -693,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -705,7 +703,7 @@
         <v>37695</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K5">
         <v>23</v>
@@ -714,13 +712,13 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N5">
         <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P5">
         <v>12</v>
@@ -740,7 +738,7 @@
         <v>38081</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>14</v>
@@ -749,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>2</v>
